--- a/biology/Zoologie/Celaenia/Celaenia.xlsx
+++ b/biology/Zoologie/Celaenia/Celaenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celaenia est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celaenia est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie et Nouvelle-Zélande.
 On les trouve principalement le long de la côte orientale et méridionale d'Australie.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées nocturnes, bien connu pour ses membres à l'aspect de crotte d'oiseaux. Cette mimétique permet à ces araignées d'éviter les prédateurs, principalement les oiseaux.
 Les mâles sont beaucoup plus petits que les femelles, faisant environ 2,5 mm contre 12 mm. La femelle peut avoir jusqu'à 13 sacs d'œufs, chacun contenant 200 œufs. Ces sacs sont reliés par de puissants fils de soie. Pour chasser, l'araignée se pend sur un fil de soie et imite les mites femelles en sécrétant de la phéromone. Lorsqu'une mite s'approche, elle sera capturée par l'araignée avec ses pattes puissantes.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 19.0, 17/05/2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 19.0, 17/05/2018) :
 Celaenia atkinsoni (O. Pickard-Cambridge, 1880)
 Celaenia calotoides Rainbow, 1908
 Celaenia distincta (O. Pickard-Cambridge, 1869)
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1868 : Araneae. Species novae minusve cognitae. Kongliga Svenska Fregatten Eugenies Resa omkring Jorden, Uppsala, Zoologi, Arachnida, p. 1-34.</t>
         </is>
